--- a/Dailyscrum_cartwright.xlsx
+++ b/Dailyscrum_cartwright.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Christos Panagi" sheetId="1" r:id="rId1"/>
     <sheet name="Sotiria Patroni" sheetId="2" r:id="rId2"/>
-    <sheet name="Costas Lebesis" sheetId="3" r:id="rId3"/>
+    <sheet name="Costantinos Lebesis" sheetId="3" r:id="rId3"/>
     <sheet name="Yunwei Ge" sheetId="4" r:id="rId4"/>
     <sheet name="Zhenyun Lyu" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -144,16 +144,16 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -447,216 +447,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>43048</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>43049</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>43050</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>43051</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>43052</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>43053</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>43054</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -679,186 +679,186 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>43048</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>43049</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>43050</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>43051</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>43052</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>43053</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>43054</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -874,193 +874,193 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>43048</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>43049</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>43050</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>43051</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>43052</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>43053</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>43054</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1083,186 +1083,186 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>43048</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>43049</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>43050</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>43051</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>43052</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>43053</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>43054</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1285,186 +1285,186 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>43048</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>43049</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>43050</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>43051</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>43052</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>43053</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>43054</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Dailyscrum_cartwright.xlsx
+++ b/Dailyscrum_cartwright.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christos/Desktop/agile_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工具\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Christos Panagi" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -79,25 +79,80 @@
   </si>
   <si>
     <t>Commited task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run the source code </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>find two tests failed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fix the bugs </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass the test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>understand the function of source code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyse the new requirement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>understand the logic and function of the source code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test for the requirement1(calculate first_last)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>understand the logic of function written by Christos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test the new function(calculate the frist_last)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprint review</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>submit the task</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="5"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -156,13 +211,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -430,23 +488,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.4609375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -457,7 +515,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>43048</v>
       </c>
@@ -480,7 +538,7 @@
         <v>43054</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -489,7 +547,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -500,7 +558,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -509,7 +567,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -528,7 +586,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -543,7 +601,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -552,7 +610,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -561,7 +619,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -570,7 +628,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -579,7 +637,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -590,7 +648,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -599,7 +657,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -614,7 +672,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -627,7 +685,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -638,7 +696,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -649,7 +707,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -664,21 +722,22 @@
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -689,7 +748,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>43048</v>
       </c>
@@ -712,7 +771,7 @@
         <v>43054</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -721,7 +780,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -732,7 +791,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -741,7 +800,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -750,7 +809,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -759,7 +818,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -768,7 +827,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -777,7 +836,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -786,7 +845,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -795,7 +854,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -806,7 +865,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -815,7 +874,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -824,7 +883,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -833,7 +892,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -842,7 +901,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -851,7 +910,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -866,21 +925,22 @@
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A12:G12"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -891,7 +951,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>43048</v>
       </c>
@@ -914,7 +974,7 @@
         <v>43054</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -923,7 +983,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -934,7 +994,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -943,7 +1003,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -952,7 +1012,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -961,7 +1021,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -970,7 +1030,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -979,7 +1039,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -988,7 +1048,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -997,7 +1057,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -1008,7 +1068,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1017,7 +1077,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1026,7 +1086,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1035,7 +1095,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1044,7 +1104,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1053,7 +1113,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1068,21 +1128,29 @@
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A12:G12"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="35.23046875" customWidth="1"/>
+    <col min="2" max="2" width="44.3046875" customWidth="1"/>
+    <col min="3" max="3" width="42.61328125" customWidth="1"/>
+    <col min="4" max="4" width="37.61328125" customWidth="1"/>
+    <col min="5" max="5" width="17.53515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1161,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>43048</v>
       </c>
@@ -1116,7 +1184,7 @@
         <v>43054</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1125,7 +1193,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1136,7 +1204,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1145,7 +1213,243 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A12:G12"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>43048</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43049</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43050</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43051</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43052</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43053</v>
+      </c>
+      <c r="G2" s="1">
+        <v>43054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1154,7 +1458,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1163,7 +1467,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1172,7 +1476,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1181,7 +1485,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1190,7 +1494,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1199,7 +1503,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -1210,7 +1514,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1219,7 +1523,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1228,7 +1532,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1237,7 +1541,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1246,7 +1550,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1255,7 +1559,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1270,208 +1574,7 @@
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A12:G12"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>43048</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43049</v>
-      </c>
-      <c r="C2" s="1">
-        <v>43050</v>
-      </c>
-      <c r="D2" s="1">
-        <v>43051</v>
-      </c>
-      <c r="E2" s="1">
-        <v>43052</v>
-      </c>
-      <c r="F2" s="1">
-        <v>43053</v>
-      </c>
-      <c r="G2" s="1">
-        <v>43054</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A12:G12"/>
-  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Dailyscrum_cartwright.xlsx
+++ b/Dailyscrum_cartwright.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工具\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LZY\Agile and Test-Driven\COMP62521\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" tabRatio="500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Christos Panagi" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -126,13 +126,49 @@
   </si>
   <si>
     <t>submit the task</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>followed the instructions on blackboard to clone, run and test the code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get more familiar with the souce code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get full understand of the tasks in sprint1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finished the test for the calculate_first_last function</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>went through the source code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>analysed the requirements</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>discussed the sprint1 with team menbers and got the divided work</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed the existed errors and passed the tests</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish the test for the new function: calculate_first_last</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -488,7 +524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -728,7 +764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -931,7 +967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1134,10 +1170,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1377,14 +1413,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="57.4609375" customWidth="1"/>
+    <col min="2" max="2" width="43.84375" customWidth="1"/>
+    <col min="3" max="3" width="41.23046875" customWidth="1"/>
+    <col min="4" max="4" width="42.3046875" customWidth="1"/>
+    <col min="5" max="5" width="23.4609375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
@@ -1450,25 +1493,42 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1477,7 +1537,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1524,17 +1586,27 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1542,8 +1614,12 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1551,7 +1627,9 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
